--- a/Resources/revised logistic regression models.xlsx
+++ b/Resources/revised logistic regression models.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://communsol-my.sharepoint.com/personal/judith_calvo_communitysolutions_org/Documents/_aUCB Data Analytics Bootcamp Class/Final Project Folder/ML/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{738A85BA-E4C7-409E-9FB0-5521AD461B4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D2E09296-4C71-44DB-A782-7E8FF8AB633D}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{738A85BA-E4C7-409E-9FB0-5521AD461B4F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{471D731F-00B3-4D6E-836C-D9274A1C236F}"/>
   <bookViews>
-    <workbookView xWindow="950" yWindow="720" windowWidth="17280" windowHeight="8920" activeTab="2" xr2:uid="{37B59086-5969-4DAB-9166-4B4D01945F50}"/>
+    <workbookView xWindow="1290" yWindow="1060" windowWidth="17280" windowHeight="8920" firstSheet="1" activeTab="3" xr2:uid="{37B59086-5969-4DAB-9166-4B4D01945F50}"/>
   </bookViews>
   <sheets>
     <sheet name="REVISED MODEL" sheetId="2" r:id="rId1"/>
     <sheet name="reduced model 1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="final reduced logistic" sheetId="4" r:id="rId3"/>
+    <sheet name="classification analysis ML" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="125">
   <si>
     <t>Optimization terminated successfully.</t>
   </si>
@@ -348,6 +349,66 @@
   </si>
   <si>
     <t>loc_num                  0.3745      0.100      3.745      0.000       0.178       0.570</t>
+  </si>
+  <si>
+    <t>LogisticRegression(C=1.0, class_weight=None, dual=False, fit_intercept=True,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   intercept_scaling=1, l1_ratio=None, max_iter=100,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   multi_class='auto', n_jobs=None, penalty='l2',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   random_state=None, solver='lbfgs', tol=0.0001, verbose=0,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   warm_start=False)</t>
+  </si>
+  <si>
+    <t>Predicted Not</t>
+  </si>
+  <si>
+    <t>Predicted Successful</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
+    <t>Actual Not Discharged Successfully</t>
+  </si>
+  <si>
+    <t>Actual Discharged Successfully</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>Not Successful</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>f1-score</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>Classification Report</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>macro avg</t>
+  </si>
+  <si>
+    <t>weighted avg</t>
   </si>
 </sst>
 </file>
@@ -357,7 +418,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +437,19 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -404,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -426,6 +500,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1923,7 +2003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F62041-EBE9-4F35-940A-A1E4FCFE61E3}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -2053,8 +2133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8613B6-B5E1-43B3-A46F-3AAE4D7069B3}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2179,7 +2259,235 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA12FAF-285C-411F-9E96-7FA3DBDC51BF}">
+  <dimension ref="A1:F22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="11"/>
+    <col min="3" max="3" width="11.90625" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8"/>
+      <c r="B8" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>74</v>
+      </c>
+      <c r="D9">
+        <f>SUM(B9:C9)</f>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="C10">
+        <v>146</v>
+      </c>
+      <c r="D10">
+        <f>SUM(B10:C10)</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B9:B10)</f>
+        <v>91</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C9:C10)</f>
+        <v>220</v>
+      </c>
+      <c r="D11">
+        <f>SUM(D9:D10)</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="11">
+        <v>1</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.66</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.73</v>
+      </c>
+      <c r="F18" s="11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="E20" s="11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.61</v>
+      </c>
+      <c r="E21" s="11">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.65</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.63</v>
+      </c>
+      <c r="E22" s="11">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B03C3E295CF76648AC85B6EC26361ECA" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e0bb9dd14d241c245318bb8942e244b1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="b42430d8-c205-408e-a6b2-f7bcf1ddda46" xmlns:ns4="076ed714-3a77-4f17-8bbf-04471c3fc2e1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1d56a7a2c73efd02ab063fa24f087166" ns3:_="" ns4:_="">
     <xsd:import namespace="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
@@ -2402,22 +2710,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73631FCF-F147-442E-89CF-7171BE0ECF4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A316E567-CFE3-4B68-AD11-6F7069B1A953}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7B76268-F43F-4FB2-AD8F-D228A893F7BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2434,29 +2752,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A316E567-CFE3-4B68-AD11-6F7069B1A953}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73631FCF-F147-442E-89CF-7171BE0ECF4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="076ed714-3a77-4f17-8bbf-04471c3fc2e1"/>
-    <ds:schemaRef ds:uri="b42430d8-c205-408e-a6b2-f7bcf1ddda46"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>